--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/land/rpepuace/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5433A-A10D-194B-A074-F94823FFEEF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -113,7 +125,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +172,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -168,6 +180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -262,6 +275,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +327,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,19 +519,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="5">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -492,59 +542,59 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2015</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -552,28 +602,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2009</v>
       </c>
@@ -590,7 +640,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -610,7 +660,7 @@
         <v>-871026</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -630,7 +680,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -650,7 +700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -675,7 +725,7 @@
         <v>-2.6750062569888842E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -706,7 +756,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -716,17 +766,17 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -734,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -742,7 +792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -750,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -758,7 +808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -766,7 +816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -774,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -782,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -790,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -798,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -807,7 +857,7 @@
         <v>4.2997168577917945E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -816,7 +866,7 @@
         <v>3.5003753313133949E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/land/rpepuace/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/land/rpepuace/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D5433A-A10D-194B-A074-F94823FFEEF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7F92AE-FC21-0D4A-936B-362E8F86FCEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
+++ b/InputData/land/RPEpUACE/Rebound Pol Emis per Unit Avoided CO2 Emis.xlsx
@@ -1,27 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11010"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\land\RPEpUACE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NJ/land/RPEpUACE/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B41AC882-98C0-9E4A-978B-FC0676524534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="383" yWindow="83" windowWidth="19140" windowHeight="9263"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="19140" windowHeight="9260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="RPEpUACE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>RPEpUACE Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
@@ -108,12 +120,15 @@
   </si>
   <si>
     <t>Table 6-3</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -160,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -168,6 +183,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -262,6 +278,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -297,6 +330,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -472,21 +522,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="5">
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -494,59 +550,59 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="4">
         <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -554,30 +610,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.86328125" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3">
         <v>2015</v>
       </c>
@@ -594,7 +650,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -614,7 +670,7 @@
         <v>-812695</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -634,7 +690,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -654,7 +710,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -679,7 +735,7 @@
         <v>-6.7922160220008736E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -710,7 +766,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -720,17 +776,17 @@
       <selection activeCell="B2" sqref="B2:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -738,7 +794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -746,7 +802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -754,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -762,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -770,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -778,7 +834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -786,7 +842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -794,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -802,7 +858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -811,7 +867,7 @@
         <v>6.6417418588509813E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -820,7 +876,7 @@
         <v>3.8529345186784264E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
